--- a/Fos ratios_Manuscript.xlsx
+++ b/Fos ratios_Manuscript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\Nidorina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A13A59-14AD-48FF-8D3A-13206289BA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512E55E-E143-462D-A0AA-B3FD7BF58865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45585" yWindow="3015" windowWidth="10500" windowHeight="11145" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="2" r:id="rId1"/>
@@ -668,9 +668,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2999,7 +3000,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3654,7 +3655,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4300,7 +4301,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E38"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4335,8 +4336,8 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>897.872340425532</v>
+      <c r="E2" s="2">
+        <v>11.137440758293838</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4352,8 +4353,8 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>22152.63157894737</v>
+      <c r="E3" s="2">
+        <v>0.45141363744357327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4369,8 +4370,8 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>852.30769230769226</v>
+      <c r="E4" s="2">
+        <v>11.732851985559567</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4386,6 +4387,7 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -4400,8 +4402,8 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1705.3012048192772</v>
+      <c r="E6" s="2">
+        <v>5.8640666949272289</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -4417,8 +4419,8 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>654.22993492407807</v>
+      <c r="E7" s="2">
+        <v>15.285145888594165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4434,6 +4436,7 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -4448,8 +4451,8 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1241.9678714859438</v>
+      <c r="E9" s="2">
+        <v>8.0517380759902988</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4465,8 +4468,8 @@
       <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>1314.484126984127</v>
+      <c r="E10" s="2">
+        <v>7.6075471698113208</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -4482,8 +4485,8 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1384.6153846153848</v>
+      <c r="E11" s="2">
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -4499,6 +4502,7 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -4513,6 +4517,7 @@
       <c r="D13" t="s">
         <v>0</v>
       </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -4527,8 +4532,8 @@
       <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>594.09282700421932</v>
+      <c r="E14" s="2">
+        <v>16.832386363636363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4544,8 +4549,8 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1322.5490196078433</v>
+      <c r="E15" s="2">
+        <v>7.5611564121571533</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4561,8 +4566,8 @@
       <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>2114.2857142857142</v>
+      <c r="E16" s="2">
+        <v>4.7297297297297298</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -4578,6 +4583,7 @@
       <c r="D17" t="s">
         <v>0</v>
       </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -4592,8 +4598,8 @@
       <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>1060.3085553997196</v>
+      <c r="E18" s="2">
+        <v>9.4312169312169303</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -4609,8 +4615,8 @@
       <c r="D19" t="s">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>475</v>
+      <c r="E19" s="2">
+        <v>21.052631578947366</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -4626,6 +4632,7 @@
       <c r="D20" t="s">
         <v>0</v>
       </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -4640,6 +4647,7 @@
       <c r="D21" t="s">
         <v>0</v>
       </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -4654,8 +4662,8 @@
       <c r="D22" t="s">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>3824.3697478991598</v>
+      <c r="E22" s="2">
+        <v>2.6148099318831024</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -4671,8 +4679,8 @@
       <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1166.4335664335665</v>
+      <c r="E23" s="2">
+        <v>8.5731414868105507</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -4688,8 +4696,8 @@
       <c r="D24" t="s">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>465.44850498338872</v>
+      <c r="E24" s="2">
+        <v>21.484653818700927</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -4705,8 +4713,8 @@
       <c r="D25" t="s">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>2173.3509234828498</v>
+      <c r="E25" s="2">
+        <v>4.6011897535510498</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -4722,8 +4730,8 @@
       <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26">
-        <v>907.18232044198896</v>
+      <c r="E26" s="2">
+        <v>11.0231425091352</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -4739,8 +4747,8 @@
       <c r="D27" t="s">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>1109.2255125284737</v>
+      <c r="E27" s="2">
+        <v>9.0152993120443572</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -4756,6 +4764,7 @@
       <c r="D28" t="s">
         <v>0</v>
       </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -4770,6 +4779,7 @@
       <c r="D29" t="s">
         <v>0</v>
       </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -4784,8 +4794,8 @@
       <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>10800</v>
+      <c r="E30" s="2">
+        <v>0.92592592592592582</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -4801,8 +4811,8 @@
       <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31">
-        <v>659.45945945945948</v>
+      <c r="E31" s="2">
+        <v>15.163934426229508</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -4818,8 +4828,8 @@
       <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32">
-        <v>1141.8819188191881</v>
+      <c r="E32" s="2">
+        <v>8.7574729358539347</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -4835,8 +4845,8 @@
       <c r="D33" t="s">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>903.27044025157227</v>
+      <c r="E33" s="2">
+        <v>11.070881492828297</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -4852,6 +4862,7 @@
       <c r="D34" t="s">
         <v>0</v>
       </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -4866,6 +4877,7 @@
       <c r="D35" t="s">
         <v>0</v>
       </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -4880,8 +4892,8 @@
       <c r="D36" t="s">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>720.80924855491332</v>
+      <c r="E36" s="2">
+        <v>13.873295910184444</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -4897,8 +4909,8 @@
       <c r="D37" t="s">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>3657.1428571428569</v>
+      <c r="E37" s="2">
+        <v>2.734375</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -4914,6 +4926,7 @@
       <c r="D38" t="s">
         <v>0</v>
       </c>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
